--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr8_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr8_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -190,57 +241,57 @@
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.24609375" customWidth="true"/>
+    <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
+    <col min="6" max="6" width="15.77734375" customWidth="true"/>
     <col min="7" max="7" width="15.64453125" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.77734375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.21750806742458428</v>
+        <v>0.24348136497129308</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.22293944343337457</v>
+        <v>0.24462373638613907</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0023188240988837386</v>
+        <v>0.0024565856102463407</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00062505183468112028</v>
+        <v>0.0013905238790777822</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0029617914212466839</v>
+        <v>0.001308044599629914</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00044580056436898188</v>
+        <v>0.0009075202281905089</v>
       </c>
       <c r="H3" s="0">
-        <v>1.6070025890260402e-05</v>
+        <v>-9.4720658826325337e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-6.5789683454420598e-05</v>
+        <v>-0.00076865335555624927</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>6.2510811274285594e-05</v>
+        <v>-0.00022166576564178198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.31661590982874843</v>
+        <v>0.34707111400045093</v>
       </c>
       <c r="C4" s="0">
-        <v>0.023032910235262914</v>
+        <v>0.055945606070605801</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00025854577818558335</v>
+        <v>2.6050055649833963e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00026378493678193521</v>
+        <v>-1.5490625145382118e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-1.8378897761994205e-06</v>
+        <v>0.0004940988766821456</v>
       </c>
       <c r="I4" s="0">
-        <v>0.00024965710382365879</v>
+        <v>-0.0069537893068279425</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00060555814635810507</v>
+        <v>0.0025909864060679124</v>
       </c>
       <c r="K4" s="0">
-        <v>-8.8008072774703461e-06</v>
+        <v>-8.9331696831784768e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.34298841629848192</v>
+        <v>0.30975089970678987</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0059479473430759057</v>
+        <v>-0.00059718431065396117</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00060395034688575776</v>
+        <v>-0.00016346733425145706</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0020758287514539417</v>
+        <v>0.010264643717978287</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00040940176034381541</v>
+        <v>-0.002050626724542373</v>
       </c>
       <c r="H5" s="0">
-        <v>5.4690657120721999e-05</v>
+        <v>0.0006207787608230582</v>
       </c>
       <c r="I5" s="0">
-        <v>0.00041761236226822311</v>
+        <v>-0.0013300760490291743</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.00089837069366771605</v>
+        <v>-0.010934206327267881</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.3133140593818744</v>
+        <v>0.26819744413297453</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.017398808577740208</v>
+        <v>-0.028862957223365605</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>4.5227726188458405e-05</v>
+        <v>-0.0012009424360913228</v>
       </c>
       <c r="F6" s="0">
-        <v>2.5890641985700353e-05</v>
+        <v>0.00061836818578724138</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.00010527076830211148</v>
+        <v>0.0011869438946750239</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0011544008522276386</v>
+        <v>-0.0096980726622078166</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>3.3891484439219077e-05</v>
+        <v>5.782909640539291e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.31959133152675867</v>
+        <v>0.29074964578802531</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0033963967824738811</v>
+        <v>-0.031310720487866033</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0024782890217602879</v>
+        <v>-0.0019113020409486199</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0036527100370874806</v>
+        <v>0.0079079405893488046</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00011941331702488314</v>
+        <v>0.0025926726034475214</v>
       </c>
       <c r="H7" s="0">
-        <v>-4.8920504476728043e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-9.7326162209158645e-05</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0017279895133223699</v>
+        <v>-0.0011913071537981157</v>
       </c>
     </row>
     <row r="8">
